--- a/FE/allocation_results.xlsx
+++ b/FE/allocation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,14 +564,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t>Old Municipal Bldg.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120.950788291388</v>
+        <v>120.948177254006</v>
       </c>
       <c r="F4" t="n">
-        <v>14.7523618894178</v>
+        <v>14.7573006861396</v>
       </c>
       <c r="G4" t="n">
         <v>5000</v>
@@ -634,14 +634,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lias Elementary School</t>
+          <t>Ibayo Elementary School</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120.965390844846</v>
+        <v>120.959816737558</v>
       </c>
       <c r="F6" t="n">
-        <v>14.7627779447143</v>
+        <v>14.7535649557989</v>
       </c>
       <c r="G6" t="n">
         <v>1545</v>
@@ -739,14 +739,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Saog Elementary School</t>
+          <t>FSS Patulo Elementary School</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120.956198167611</v>
+        <v>121.027062736924</v>
       </c>
       <c r="F9" t="n">
-        <v>14.765465938427</v>
+        <v>14.7839553140957</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Old Municipal Bldg.</t>
+          <t>Barangay Hall Nagbalon</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120.948177254006</v>
+        <v>120.950788291388</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7573006861396</v>
+        <v>14.7523618894178</v>
       </c>
       <c r="G10" t="n">
         <v>3000</v>
@@ -973,68 +973,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saog</t>
+          <t>Tabing Ilog</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.9556</v>
+        <v>120.9488</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7642</v>
+        <v>14.7649</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Saog Elementary School</t>
+          <t>Barangay Hall Tabing Ilog</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>120.956198167611</v>
+        <v>120.948513036352</v>
       </c>
       <c r="F16" t="n">
-        <v>14.765465938427</v>
+        <v>14.7656033896092</v>
       </c>
       <c r="G16" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="H16" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>Level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tabing Ilog</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>120.9488</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14.7649</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Barangay Hall Tabing Ilog</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>120.948513036352</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14.7656033896092</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5500</v>
-      </c>
-      <c r="H17" t="n">
-        <v>55</v>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>Level 1</t>
         </is>

--- a/FE/allocation_results.xlsx
+++ b/FE/allocation_results.xlsx
@@ -634,14 +634,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lias Elementary School</t>
+          <t>Ibayo Elementary School</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120.965390844846</v>
+        <v>120.959816737558</v>
       </c>
       <c r="F6" t="n">
-        <v>14.7627779447143</v>
+        <v>14.7535649557989</v>
       </c>
       <c r="G6" t="n">
         <v>1545</v>
@@ -704,14 +704,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t>Old Municipal Bldg.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>120.950788291388</v>
+        <v>120.948177254006</v>
       </c>
       <c r="F8" t="n">
-        <v>14.7523618894178</v>
+        <v>14.7573006861396</v>
       </c>
       <c r="G8" t="n">
         <v>4925</v>
@@ -739,14 +739,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Saog Elementary School</t>
+          <t>Marilao Central School</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120.956198167611</v>
+        <v>120.949191076043</v>
       </c>
       <c r="F9" t="n">
-        <v>14.765465938427</v>
+        <v>14.7549081782114</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Old Municipal Bldg.</t>
+          <t>Barangay Hall Nagbalon</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120.948177254006</v>
+        <v>120.950788291388</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7573006861396</v>
+        <v>14.7523618894178</v>
       </c>
       <c r="G10" t="n">
         <v>3000</v>

--- a/FE/allocation_results.xlsx
+++ b/FE/allocation_results.xlsx
@@ -494,14 +494,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abangan Sur Elementary School</t>
+          <t>Tabing Ilog Elementary School</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>120.942286137427</v>
+        <v>120.948821314155</v>
       </c>
       <c r="F2" t="n">
-        <v>14.7647143396197</v>
+        <v>14.7652274561484</v>
       </c>
       <c r="G2" t="n">
         <v>10080</v>
@@ -634,14 +634,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ibayo Elementary School</t>
+          <t>Lias Elementary School</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120.959816737558</v>
+        <v>120.965390844846</v>
       </c>
       <c r="F6" t="n">
-        <v>14.7535649557989</v>
+        <v>14.7627779447143</v>
       </c>
       <c r="G6" t="n">
         <v>1545</v>
@@ -704,14 +704,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Old Municipal Bldg.</t>
+          <t>Barangay Hall Nagbalon</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>120.948177254006</v>
+        <v>120.950788291388</v>
       </c>
       <c r="F8" t="n">
-        <v>14.7573006861396</v>
+        <v>14.7523618894178</v>
       </c>
       <c r="G8" t="n">
         <v>4925</v>
@@ -739,14 +739,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Marilao Central School</t>
+          <t>Ramcar Covered Court</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120.949191076043</v>
+        <v>120.954403339867</v>
       </c>
       <c r="F9" t="n">
-        <v>14.7549081782114</v>
+        <v>14.7646177280722</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t>Old Municipal Bldg.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120.950788291388</v>
+        <v>120.948177254006</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7523618894178</v>
+        <v>14.7573006861396</v>
       </c>
       <c r="G10" t="n">
         <v>3000</v>
@@ -1019,14 +1019,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Barangay Hall Tabing Ilog</t>
+          <t>Tabing Ilog Elementary School</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>120.948513036352</v>
+        <v>120.948821314155</v>
       </c>
       <c r="F17" t="n">
-        <v>14.7656033896092</v>
+        <v>14.7652274561484</v>
       </c>
       <c r="G17" t="n">
         <v>5500</v>

--- a/FE/allocation_results.xlsx
+++ b/FE/allocation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,14 +564,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Old Municipal Bldg.</t>
+          <t>Marilao Central School</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120.948177254006</v>
+        <v>120.949191076043</v>
       </c>
       <c r="F4" t="n">
-        <v>14.7573006861396</v>
+        <v>14.7549081782114</v>
       </c>
       <c r="G4" t="n">
         <v>5000</v>
@@ -634,14 +634,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ibayo Elementary School</t>
+          <t>Lias Elementary School</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120.959816737558</v>
+        <v>120.965390844846</v>
       </c>
       <c r="F6" t="n">
-        <v>14.7535649557989</v>
+        <v>14.7627779447143</v>
       </c>
       <c r="G6" t="n">
         <v>1545</v>
@@ -739,14 +739,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FSS Patulo Elementary School</t>
+          <t>Sta. Rosa II Elementary School</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>121.027062736924</v>
+        <v>120.968978114161</v>
       </c>
       <c r="F9" t="n">
-        <v>14.7839553140957</v>
+        <v>14.7865722729873</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t>Marilao Central School</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120.950788291388</v>
+        <v>120.949191076043</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7523618894178</v>
+        <v>14.7549081782114</v>
       </c>
       <c r="G10" t="n">
         <v>3000</v>
@@ -973,33 +973,68 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Saog</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>120.9556</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.7642</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Saog Elementary School</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>120.956198167611</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.765465938427</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>150</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tabing Ilog</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>120.9488</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>14.7649</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Barangay Hall Tabing Ilog</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>120.948513036352</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14.7656033896092</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tabing Ilog Elementary School</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>120.948821314155</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.7652274561484</v>
+      </c>
+      <c r="G17" t="n">
         <v>5500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>55</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Level 1</t>
         </is>

--- a/FE/allocation_results.xlsx
+++ b/FE/allocation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,31 +483,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abangan Norte</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.9342</v>
+        <v>120.7855</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7661</v>
+        <v>14.8956</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abangan Sur Elementary School</t>
+          <t>San Marcos National H.S.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>120.942286137427</v>
+        <v>120.778052198391</v>
       </c>
       <c r="F2" t="n">
-        <v>14.7647143396197</v>
+        <v>14.8938559117996</v>
       </c>
       <c r="G2" t="n">
-        <v>10080</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>100.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -518,31 +518,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Abangan Sur</t>
+          <t>Balungao</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.9437</v>
+        <v>120.7622</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7653</v>
+        <v>14.9143</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abangan Sur Elementary School</t>
+          <t>San Marcos E.C.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>120.942286137427</v>
+        <v>120.779698188389</v>
       </c>
       <c r="F3" t="n">
-        <v>14.7647143396197</v>
+        <v>14.8977769256005</v>
       </c>
       <c r="G3" t="n">
-        <v>9750</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -553,31 +553,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ibayo</t>
+          <t>Buguion</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.9533</v>
+        <v>120.7985</v>
       </c>
       <c r="C4" t="n">
-        <v>14.7535</v>
+        <v>14.894</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marilao Central School</t>
+          <t>Frances E.C.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120.949191076043</v>
+        <v>120.762172685224</v>
       </c>
       <c r="F4" t="n">
-        <v>14.7549081782114</v>
+        <v>14.9194611702998</v>
       </c>
       <c r="G4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -588,31 +588,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lambakin</t>
+          <t>Bulusan</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.9785</v>
+        <v>120.7455</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7738</v>
+        <v>14.9076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lias Elementary School</t>
+          <t>Gugo E.C.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>120.965390844846</v>
+        <v>120.754567377767</v>
       </c>
       <c r="F5" t="n">
-        <v>14.7627779447143</v>
+        <v>14.9020620809296</v>
       </c>
       <c r="G5" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -623,31 +623,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lias</t>
+          <t>Calizon</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.9623</v>
+        <v>120.753</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7603</v>
+        <v>14.9125</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lias Elementary School</t>
+          <t>Calizon Dike</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120.965390844846</v>
+        <v>120.749282551866</v>
       </c>
       <c r="F6" t="n">
-        <v>14.7627779447143</v>
+        <v>14.9149192538653</v>
       </c>
       <c r="G6" t="n">
-        <v>1545</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15.45</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -658,31 +658,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Loma de Gato</t>
+          <t>Calumpang</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.0077</v>
+        <v>120.7838</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7911</v>
+        <v>14.8845</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Prenza Elementary School</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120.984338290888</v>
+        <v>120.766774213649</v>
       </c>
       <c r="F7" t="n">
-        <v>14.7836362981373</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="G7" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -693,31 +693,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nagbalon</t>
+          <t>Caniogan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.941</v>
+        <v>120.7733</v>
       </c>
       <c r="C8" t="n">
-        <v>14.7465</v>
+        <v>14.9054</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t xml:space="preserve">Meysulao Dike </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>120.950788291388</v>
+        <v>120.738828966419</v>
       </c>
       <c r="F8" t="n">
-        <v>14.7523618894178</v>
+        <v>14.9103133008009</v>
       </c>
       <c r="G8" t="n">
-        <v>4925</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -728,25 +728,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Patubig</t>
+          <t>Corazon</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.9595</v>
+        <v>120.7686</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7774</v>
+        <v>14.9128</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sta. Rosa II Elementary School</t>
+          <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120.968978114161</v>
+        <v>120.778807101888</v>
       </c>
       <c r="F9" t="n">
-        <v>14.7865722729873</v>
+        <v>14.8978852342351</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -763,31 +763,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
+          <t>Frances</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.9488</v>
+        <v>120.7532</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7559</v>
+        <v>14.9153</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marilao Central School</t>
+          <t>Balungao E.C.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120.949191076043</v>
+        <v>120.761492937455</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7549081782114</v>
+        <v>14.9148551401837</v>
       </c>
       <c r="G10" t="n">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -798,31 +798,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poblacion II</t>
+          <t>Gatbuca</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120.9464</v>
+        <v>120.7685</v>
       </c>
       <c r="C11" t="n">
-        <v>14.7599</v>
+        <v>14.9218</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nicanor V. Guillermo Covered Court</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>120.943803121954</v>
+        <v>120.766774213649</v>
       </c>
       <c r="F11" t="n">
-        <v>14.7596963612126</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="G11" t="n">
-        <v>10000</v>
+        <v>115</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>1.15</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -833,31 +833,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Prenza I</t>
+          <t>Gugo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.9849</v>
+        <v>120.7548</v>
       </c>
       <c r="C12" t="n">
-        <v>14.7833</v>
+        <v>14.9014</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Prenza Elementary School</t>
+          <t>Gugo E.C.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>120.984338290888</v>
+        <v>120.754567377767</v>
       </c>
       <c r="F12" t="n">
-        <v>14.7836362981373</v>
+        <v>14.9020620809296</v>
       </c>
       <c r="G12" t="n">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -868,31 +868,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prenza II</t>
+          <t>Iba Este</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.9868</v>
+        <v>120.7673</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7813</v>
+        <v>14.8899</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Prenza Elementary School</t>
+          <t>Calizon Dike</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>120.984338290888</v>
+        <v>120.749282551866</v>
       </c>
       <c r="F13" t="n">
-        <v>14.7836362981373</v>
+        <v>14.9149192538653</v>
       </c>
       <c r="G13" t="n">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -903,31 +903,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Santa Rosa I</t>
+          <t>Iba O'Este</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120.9746</v>
+        <v>120.7635</v>
       </c>
       <c r="C14" t="n">
-        <v>14.7789</v>
+        <v>14.8919</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sta. Rosa I Elementary School</t>
+          <t>NV9 Multi-Purpose</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>120.973228584392</v>
+        <v>120.765656923103</v>
       </c>
       <c r="F14" t="n">
-        <v>14.7789562092006</v>
+        <v>14.8984661105575</v>
       </c>
       <c r="G14" t="n">
-        <v>4995</v>
+        <v>601</v>
       </c>
       <c r="H14" t="n">
-        <v>49.95</v>
+        <v>6.01</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -938,31 +938,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Santa Rosa II</t>
+          <t>Longos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.9686</v>
+        <v>120.7866</v>
       </c>
       <c r="C15" t="n">
-        <v>14.784</v>
+        <v>14.8748</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sta. Rosa II Elementary School</t>
+          <t>San Jose E.C.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>120.968978114161</v>
+        <v>120.734404217521</v>
       </c>
       <c r="F15" t="n">
-        <v>14.7865722729873</v>
+        <v>14.8832968907295</v>
       </c>
       <c r="G15" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -973,31 +973,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saog</t>
+          <t>Meysulao</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.9556</v>
+        <v>120.7397</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7642</v>
+        <v>14.9078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Saog Elementary School</t>
+          <t>Barangay Hall Bulusan</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>120.956198167611</v>
+        <v>120.742556915324</v>
       </c>
       <c r="F16" t="n">
-        <v>14.765465938427</v>
+        <v>14.9104237817507</v>
       </c>
       <c r="G16" t="n">
-        <v>15000</v>
+        <v>56</v>
       </c>
       <c r="H16" t="n">
-        <v>150</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1008,33 +1008,453 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tabing Ilog</t>
+          <t>Meyto</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>120.9488</v>
+        <v>120.7295</v>
       </c>
       <c r="C17" t="n">
-        <v>14.7649</v>
+        <v>14.8831</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tabing Ilog Elementary School</t>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>120.948821314155</v>
+        <v>120.72904705443</v>
       </c>
       <c r="F17" t="n">
-        <v>14.7652274561484</v>
+        <v>14.8833047964844</v>
       </c>
       <c r="G17" t="n">
-        <v>5500</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>55</v>
+        <v>0.06</v>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Palimbang</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>120.7756</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.8994</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Calumpit Sports Complex</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>120.767571728115</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14.9185209048724</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Panducot</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>120.738</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.8761</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>San Marcos E.C.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>120.779698188389</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14.8977769256005</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>120.7672</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.9157</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Danga Dike</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>120.75016278348</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.9271290793079</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pungo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>120.7914</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.9023</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Calizon Dike</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>120.749282551866</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.9149192538653</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>120.7395</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.8838</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gugo E.C.</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>120.754567377767</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.9020620809296</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>120.7797</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.8976</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>San Jose E.C.</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>120.734404217521</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14.8832968907295</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>120.7427</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.917</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Doña Damiana Elem School</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>120.74341426756</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14.9183631788682</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>120.736</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.8982</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>San Marcos Elem. Sch.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>120.778807101888</v>
+      </c>
+      <c r="F25" t="n">
+        <v>14.8978852342351</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Santo Niño</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>120.7792</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.9047</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Doña Damiana Elem School</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>120.74341426756</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14.9183631788682</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sapang Bayan</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>120.7739</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.9196</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NV9 Multi-Purpose</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>120.765656923103</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14.8984661105575</v>
+      </c>
+      <c r="G27" t="n">
+        <v>65</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sergio Bayan</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>120.7909</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Calumpit Sports Complex</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>120.767571728115</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14.9185209048724</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sucol</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>120.7701</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.9138</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>F. Mendoza Memorial Elem Sch.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>120.767878787289</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14.9176780529243</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Level 1</t>
         </is>
